--- a/utilities/Excel_Sheets/Products/MEDEMD.xlsx
+++ b/utilities/Excel_Sheets/Products/MEDEMD.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="73">
   <si>
     <t>Test_Scenario</t>
   </si>
@@ -674,12 +674,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -743,7 +743,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>24</v>
@@ -755,13 +755,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>6</v>
@@ -783,44 +783,44 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="K3" s="5">
-        <v>1</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="M3" s="5">
-        <v>1</v>
+      <c r="A3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="11">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="12">
+        <v>10000001</v>
+      </c>
+      <c r="K3" s="11">
+        <v>1</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="11">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -840,7 +840,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>9</v>
@@ -852,221 +852,303 @@
         <v>7</v>
       </c>
       <c r="J4" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="6">
         <v>25000001</v>
       </c>
-      <c r="K4" s="5">
-        <v>1</v>
-      </c>
-      <c r="L4" s="5" t="s">
+      <c r="K5" s="5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="M4" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="M5" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C6" s="8">
         <v>3</v>
       </c>
-      <c r="D5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="D6" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="9">
+      <c r="H6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="9">
         <v>25000001</v>
       </c>
-      <c r="K5" s="8">
-        <v>1</v>
-      </c>
-      <c r="L5" s="8" t="s">
+      <c r="K6" s="8">
+        <v>1</v>
+      </c>
+      <c r="L6" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M6" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C7" s="14">
         <v>4</v>
       </c>
-      <c r="D6" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="13" t="s">
+      <c r="D7" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="15">
+      <c r="H7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="15">
         <v>25000001</v>
       </c>
-      <c r="K6" s="14">
-        <v>1</v>
-      </c>
-      <c r="L6" s="13" t="s">
+      <c r="K7" s="14">
+        <v>1</v>
+      </c>
+      <c r="L7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M7" s="14">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C8" s="8">
         <v>3</v>
       </c>
-      <c r="D7" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="D8" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="K7" s="8">
-        <v>1</v>
-      </c>
-      <c r="L7" s="8" t="s">
+      <c r="H8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M8" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C9" s="14">
         <v>4</v>
       </c>
-      <c r="D8" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="13" t="s">
+      <c r="D9" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="15">
-        <v>10000001</v>
-      </c>
-      <c r="K8" s="14">
-        <v>1</v>
-      </c>
-      <c r="L8" s="14" t="s">
+      <c r="H9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="15">
+        <v>10000001</v>
+      </c>
+      <c r="K9" s="14">
+        <v>1</v>
+      </c>
+      <c r="L9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M9" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C10" s="11">
         <v>2</v>
       </c>
-      <c r="D9" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="10" t="s">
+      <c r="D10" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="12">
+      <c r="H10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="12">
         <v>25000001</v>
       </c>
-      <c r="K9" s="11">
-        <v>1</v>
-      </c>
-      <c r="L9" s="10" t="s">
+      <c r="K10" s="11">
+        <v>1</v>
+      </c>
+      <c r="L10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M10" s="11">
         <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="12">
+        <v>10000001</v>
+      </c>
+      <c r="K11" s="11">
+        <v>1</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="11">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1082,7 +1164,7 @@
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/utilities/Excel_Sheets/Products/MEDEMD.xlsx
+++ b/utilities/Excel_Sheets/Products/MEDEMD.xlsx
@@ -13,10 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="5" r:id="rId1"/>
-    <sheet name="Copy" sheetId="6" r:id="rId2"/>
+    <sheet name="Full_Regression" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Copy!$A$1:$M$159</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Full_Regression!$A$1:$M$159</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
@@ -679,12 +679,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -705,7 +705,7 @@
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -746,7 +746,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -786,11 +786,8 @@
       <c r="M2" s="5">
         <v>1</v>
       </c>
-      <c r="N2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -830,11 +827,8 @@
       <c r="M3" s="5">
         <v>2</v>
       </c>
-      <c r="N3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -874,11 +868,8 @@
       <c r="M4" s="5">
         <v>3</v>
       </c>
-      <c r="N4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
@@ -918,11 +909,8 @@
       <c r="M5" s="8">
         <v>1</v>
       </c>
-      <c r="N5" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
@@ -962,11 +950,8 @@
       <c r="M6" s="8">
         <v>2</v>
       </c>
-      <c r="N6" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -1006,11 +991,8 @@
       <c r="M7" s="8">
         <v>3</v>
       </c>
-      <c r="N7" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
@@ -1050,11 +1032,8 @@
       <c r="M8" s="11">
         <v>0</v>
       </c>
-      <c r="N8" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>16</v>
       </c>
@@ -1093,9 +1072,6 @@
       </c>
       <c r="M9" s="14">
         <v>0</v>
-      </c>
-      <c r="N9" s="1">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1110,10 +1086,10 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M159"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/utilities/Excel_Sheets/Products/MEDEMD.xlsx
+++ b/utilities/Excel_Sheets/Products/MEDEMD.xlsx
@@ -684,12 +684,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -780,16 +780,16 @@
         <v>7</v>
       </c>
       <c r="J2" s="6">
-        <v>10000000</v>
+        <v>10000001</v>
       </c>
       <c r="K2" s="5">
         <v>1</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M2" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -821,57 +821,57 @@
         <v>7</v>
       </c>
       <c r="J3" s="6">
+        <v>25000001</v>
+      </c>
+      <c r="K3" s="5">
+        <v>1</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="9">
         <v>10000001</v>
       </c>
-      <c r="K3" s="5">
-        <v>1</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="6">
-        <v>25000001</v>
-      </c>
-      <c r="K4" s="5">
-        <v>1</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="5">
-        <v>3</v>
+      <c r="K4" s="8">
+        <v>1</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -903,179 +903,180 @@
         <v>7</v>
       </c>
       <c r="J5" s="9">
-        <v>10000000</v>
+        <v>25000001</v>
       </c>
       <c r="K5" s="8">
         <v>1</v>
       </c>
       <c r="L5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="8">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="8">
-        <v>3</v>
-      </c>
-      <c r="D6" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="K6" s="8">
-        <v>1</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="8">
-        <v>3</v>
-      </c>
-      <c r="D7" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="9">
-        <v>25000001</v>
-      </c>
-      <c r="K7" s="8">
-        <v>1</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="M8" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="11">
-        <v>2</v>
-      </c>
-      <c r="D8" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="10" t="s">
+      <c r="C9" s="11">
+        <v>2</v>
+      </c>
+      <c r="D9" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="K8" s="11">
-        <v>1</v>
-      </c>
-      <c r="L8" s="10" t="s">
+      <c r="H9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="K9" s="11">
+        <v>1</v>
+      </c>
+      <c r="L9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M9" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C10" s="14">
         <v>4</v>
       </c>
-      <c r="D9" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="13" t="s">
+      <c r="D10" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="15">
-        <v>10000000</v>
-      </c>
-      <c r="K9" s="14">
-        <v>1</v>
-      </c>
-      <c r="L9" s="13" t="s">
+      <c r="H10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="K10" s="14">
+        <v>1</v>
+      </c>
+      <c r="L10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M10" s="14">
         <v>0</v>
       </c>
     </row>

--- a/utilities/Excel_Sheets/Products/MEDEMD.xlsx
+++ b/utilities/Excel_Sheets/Products/MEDEMD.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="75">
   <si>
     <t>Test_Scenario</t>
   </si>
@@ -684,12 +684,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -752,170 +752,130 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="6">
+      <c r="A2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="11">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="12">
         <v>10000001</v>
       </c>
-      <c r="K2" s="5">
-        <v>1</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="K2" s="11">
+        <v>1</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="6">
-        <v>25000001</v>
-      </c>
-      <c r="K3" s="5">
-        <v>1</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="8">
-        <v>3</v>
-      </c>
-      <c r="D4" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="K4" s="8">
-        <v>1</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="8">
-        <v>3</v>
-      </c>
-      <c r="D5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="9">
-        <v>25000001</v>
-      </c>
-      <c r="K5" s="8">
-        <v>1</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+      <c r="M6" s="5">
+        <v>2</v>
+      </c>
+    </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>12</v>
@@ -945,16 +905,16 @@
         <v>7</v>
       </c>
       <c r="J7" s="6">
-        <v>10000000</v>
+        <v>25000001</v>
       </c>
       <c r="K7" s="5">
         <v>1</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M7" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -986,97 +946,221 @@
         <v>7</v>
       </c>
       <c r="J8" s="9">
-        <v>10000000</v>
+        <v>10000001</v>
       </c>
       <c r="K8" s="8">
         <v>1</v>
       </c>
       <c r="L8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="8">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="9">
+        <v>25000001</v>
+      </c>
+      <c r="K9" s="8">
+        <v>1</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="8">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="K12" s="8">
+        <v>1</v>
+      </c>
+      <c r="L12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="M12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="11">
-        <v>2</v>
-      </c>
-      <c r="D9" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="10" t="s">
+      <c r="C13" s="11">
+        <v>2</v>
+      </c>
+      <c r="D13" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="K9" s="11">
-        <v>1</v>
-      </c>
-      <c r="L9" s="10" t="s">
+      <c r="H13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="K13" s="11">
+        <v>1</v>
+      </c>
+      <c r="L13" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M13" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B14" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C14" s="14">
         <v>4</v>
       </c>
-      <c r="D10" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="13" t="s">
+      <c r="D14" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="15">
-        <v>10000000</v>
-      </c>
-      <c r="K10" s="14">
-        <v>1</v>
-      </c>
-      <c r="L10" s="13" t="s">
+      <c r="H14" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="K14" s="14">
+        <v>1</v>
+      </c>
+      <c r="L14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M14" s="14">
         <v>0</v>
       </c>
     </row>
@@ -1089,13 +1173,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
+  <sheetPr codeName="Sheet3" filterMode="1"/>
   <dimension ref="A1:N162"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1161,7 +1245,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -1202,7 +1286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1366,7 +1450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -1407,7 +1491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -1571,7 +1655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -1612,7 +1696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -1653,7 +1737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
@@ -1694,7 +1778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
@@ -1735,7 +1819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
@@ -1776,7 +1860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>15</v>
       </c>
@@ -1817,7 +1901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
@@ -1981,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>15</v>
       </c>
@@ -2145,7 +2229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
@@ -2312,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>15</v>
       </c>
@@ -2479,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>12</v>
       </c>
@@ -2520,7 +2604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>15</v>
       </c>
@@ -2561,7 +2645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>15</v>
       </c>
@@ -2602,7 +2686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>12</v>
       </c>
@@ -2643,7 +2727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>15</v>
       </c>
@@ -2684,7 +2768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
@@ -2725,7 +2809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>15</v>
       </c>
@@ -2766,7 +2850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>12</v>
       </c>
@@ -2892,7 +2976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>15</v>
       </c>
@@ -3018,7 +3102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>17</v>
       </c>
@@ -3059,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>12</v>
       </c>
@@ -3100,7 +3184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>15</v>
       </c>
@@ -3141,7 +3225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>17</v>
       </c>
@@ -3182,7 +3266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
         <v>17</v>
       </c>
@@ -3223,7 +3307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
         <v>17</v>
       </c>
@@ -3264,7 +3348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>12</v>
       </c>
@@ -3305,7 +3389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>15</v>
       </c>
@@ -3346,7 +3430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>12</v>
       </c>
@@ -3387,7 +3471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>15</v>
       </c>
@@ -3428,7 +3512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
         <v>17</v>
       </c>
@@ -3469,7 +3553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>17</v>
       </c>
@@ -3510,7 +3594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>17</v>
       </c>
@@ -3551,7 +3635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>12</v>
       </c>
@@ -3592,7 +3676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>15</v>
       </c>
@@ -3633,7 +3717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
         <v>17</v>
       </c>
@@ -3674,7 +3758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
         <v>17</v>
       </c>
@@ -3715,7 +3799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
         <v>17</v>
       </c>
@@ -3756,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>12</v>
       </c>
@@ -3797,7 +3881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>15</v>
       </c>
@@ -3838,7 +3922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>12</v>
       </c>
@@ -3879,7 +3963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>15</v>
       </c>
@@ -3920,7 +4004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>12</v>
       </c>
@@ -3961,7 +4045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>15</v>
       </c>
@@ -4002,7 +4086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>12</v>
       </c>
@@ -4043,7 +4127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>15</v>
       </c>
@@ -4084,7 +4168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>12</v>
       </c>
@@ -4125,7 +4209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
         <v>15</v>
       </c>
@@ -4166,7 +4250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
         <v>17</v>
       </c>
@@ -4207,7 +4291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
         <v>27</v>
       </c>
@@ -4248,7 +4332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
         <v>27</v>
       </c>
@@ -4289,7 +4373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>12</v>
       </c>
@@ -4330,7 +4414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>15</v>
       </c>
@@ -4371,7 +4455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>12</v>
       </c>
@@ -4415,7 +4499,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
         <v>15</v>
       </c>
@@ -4459,7 +4543,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>12</v>
       </c>
@@ -4500,7 +4584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>12</v>
       </c>
@@ -4541,7 +4625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>12</v>
       </c>
@@ -4582,7 +4666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>12</v>
       </c>
@@ -4623,7 +4707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>12</v>
       </c>
@@ -4664,7 +4748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>12</v>
       </c>
@@ -4705,7 +4789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>12</v>
       </c>
@@ -4746,7 +4830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>12</v>
       </c>
@@ -4787,7 +4871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>12</v>
       </c>
@@ -4831,7 +4915,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>12</v>
       </c>
@@ -4872,7 +4956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>12</v>
       </c>
@@ -4913,7 +4997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>12</v>
       </c>
@@ -4954,7 +5038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>12</v>
       </c>
@@ -4995,7 +5079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>12</v>
       </c>
@@ -5036,7 +5120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>12</v>
       </c>
@@ -5077,7 +5161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>12</v>
       </c>
@@ -5118,7 +5202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>12</v>
       </c>
@@ -5159,7 +5243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>12</v>
       </c>
@@ -5200,7 +5284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>12</v>
       </c>
@@ -5241,7 +5325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>12</v>
       </c>
@@ -5282,7 +5366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>12</v>
       </c>
@@ -5323,7 +5407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>12</v>
       </c>
@@ -5364,7 +5448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>12</v>
       </c>
@@ -5405,7 +5489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>12</v>
       </c>
@@ -5446,7 +5530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>12</v>
       </c>
@@ -5487,7 +5571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
         <v>15</v>
       </c>
@@ -5528,7 +5612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
         <v>15</v>
       </c>
@@ -5569,7 +5653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
         <v>15</v>
       </c>
@@ -5610,7 +5694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
         <v>15</v>
       </c>
@@ -5651,7 +5735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
         <v>15</v>
       </c>
@@ -5692,7 +5776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
         <v>15</v>
       </c>
@@ -5733,7 +5817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
         <v>15</v>
       </c>
@@ -5774,7 +5858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
         <v>15</v>
       </c>
@@ -5815,7 +5899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
         <v>15</v>
       </c>
@@ -5859,7 +5943,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
         <v>15</v>
       </c>
@@ -5900,7 +5984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
         <v>15</v>
       </c>
@@ -5941,7 +6025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
         <v>15</v>
       </c>
@@ -5982,7 +6066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
         <v>15</v>
       </c>
@@ -6023,7 +6107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
         <v>15</v>
       </c>
@@ -6064,7 +6148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
         <v>15</v>
       </c>
@@ -6105,7 +6189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
         <v>15</v>
       </c>
@@ -6146,7 +6230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
         <v>15</v>
       </c>
@@ -6187,7 +6271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
         <v>15</v>
       </c>
@@ -6228,7 +6312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
         <v>15</v>
       </c>
@@ -6269,7 +6353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
         <v>15</v>
       </c>
@@ -6310,7 +6394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
         <v>15</v>
       </c>
@@ -6351,7 +6435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
         <v>15</v>
       </c>
@@ -6392,7 +6476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
         <v>15</v>
       </c>
@@ -6433,7 +6517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
         <v>15</v>
       </c>
@@ -6474,7 +6558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
         <v>15</v>
       </c>
@@ -6515,7 +6599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
         <v>14</v>
       </c>
@@ -6556,7 +6640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
         <v>14</v>
       </c>
@@ -6597,7 +6681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
         <v>14</v>
       </c>
@@ -6638,7 +6722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
         <v>14</v>
       </c>
@@ -6679,7 +6763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
         <v>14</v>
       </c>
@@ -6720,7 +6804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
         <v>14</v>
       </c>
@@ -6761,7 +6845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
         <v>14</v>
       </c>
@@ -6802,7 +6886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="10" t="s">
         <v>14</v>
       </c>
@@ -6843,7 +6927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="10" t="s">
         <v>14</v>
       </c>
@@ -6884,7 +6968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="10" t="s">
         <v>14</v>
       </c>
@@ -6925,7 +7009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="10" t="s">
         <v>14</v>
       </c>
@@ -6966,7 +7050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="10" t="s">
         <v>26</v>
       </c>
@@ -7007,7 +7091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="10" t="s">
         <v>26</v>
       </c>
@@ -7048,7 +7132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="10" t="s">
         <v>26</v>
       </c>
@@ -7089,7 +7173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="10" t="s">
         <v>26</v>
       </c>
@@ -7130,7 +7214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="10" t="s">
         <v>26</v>
       </c>
@@ -7171,7 +7255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="10" t="s">
         <v>26</v>
       </c>
@@ -7212,7 +7296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="10" t="s">
         <v>26</v>
       </c>
@@ -7253,7 +7337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="10" t="s">
         <v>26</v>
       </c>
@@ -7294,7 +7378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="10" t="s">
         <v>26</v>
       </c>
@@ -7335,7 +7419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="10" t="s">
         <v>26</v>
       </c>
@@ -7376,7 +7460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="10" t="s">
         <v>26</v>
       </c>
@@ -7417,7 +7501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="13" t="s">
         <v>27</v>
       </c>
@@ -7458,7 +7542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="13" t="s">
         <v>27</v>
       </c>
@@ -7499,7 +7583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="13" t="s">
         <v>27</v>
       </c>
@@ -7540,7 +7624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="13" t="s">
         <v>27</v>
       </c>
@@ -7581,7 +7665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="13" t="s">
         <v>27</v>
       </c>
@@ -7622,7 +7706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="13" t="s">
         <v>27</v>
       </c>
@@ -7663,7 +7747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="13" t="s">
         <v>27</v>
       </c>
@@ -7704,7 +7788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="13" t="s">
         <v>27</v>
       </c>
@@ -7745,7 +7829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="13" t="s">
         <v>27</v>
       </c>
@@ -7787,7 +7871,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M162"/>
+  <autoFilter ref="A1:M162">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Medical Group"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/utilities/Excel_Sheets/Products/MEDEMD.xlsx
+++ b/utilities/Excel_Sheets/Products/MEDEMD.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="76">
   <si>
     <t>Test_Scenario</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>DQ Triggered</t>
+  </si>
+  <si>
+    <t>New Dev Agent Tigran</t>
   </si>
 </sst>
 </file>
@@ -686,10 +689,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -774,7 +777,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>7</v>

--- a/utilities/Excel_Sheets/Products/MEDEMD.xlsx
+++ b/utilities/Excel_Sheets/Products/MEDEMD.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'11611'!$A$1:$N$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Full_Regression!$A$1:$M$162</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$O$1</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="76">
   <si>
     <t>Test_Scenario</t>
   </si>
@@ -259,13 +259,13 @@
     <t>DQ Triggered</t>
   </si>
   <si>
-    <t>New Dev Agent Tigran</t>
+    <t>Effective_Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -331,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -361,6 +361,10 @@
     <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,35 +689,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="133.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="23.140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="3" width="32.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="133.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="23.140625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -721,461 +725,539 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="17">
+        <v>43132</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="6">
+        <v>500000</v>
+      </c>
+      <c r="L2" s="5">
+        <v>1</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="11">
-        <v>2</v>
-      </c>
-      <c r="D2" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="10" t="s">
+      <c r="C4" s="18">
+        <v>43449</v>
+      </c>
+      <c r="D4" s="11">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="12">
+      <c r="I4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="L4" s="11">
+        <v>1</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="17">
+        <v>43449</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="6">
+        <v>500000</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="17">
+        <v>43344</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="6">
         <v>10000001</v>
       </c>
-      <c r="K2" s="11">
-        <v>1</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="11">
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="17">
+        <v>42979</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="6">
+        <v>25000001</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="19">
+        <v>42979</v>
+      </c>
+      <c r="D10" s="8">
+        <v>3</v>
+      </c>
+      <c r="E10" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="L10" s="8">
+        <v>1</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="19">
+        <v>42979</v>
+      </c>
+      <c r="D11" s="8">
+        <v>3</v>
+      </c>
+      <c r="E11" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="9">
+        <v>25000001</v>
+      </c>
+      <c r="L11" s="8">
+        <v>1</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="17">
+        <v>42979</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L13" s="5">
+        <v>1</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="19">
+        <v>42979</v>
+      </c>
+      <c r="D14" s="8">
+        <v>3</v>
+      </c>
+      <c r="E14" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="L14" s="8">
+        <v>1</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="18">
+        <v>42979</v>
+      </c>
+      <c r="D15" s="11">
+        <v>2</v>
+      </c>
+      <c r="E15" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L15" s="11">
+        <v>1</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="K4" s="5">
-        <v>1</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="K6" s="5">
-        <v>1</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="6">
-        <v>25000001</v>
-      </c>
-      <c r="K7" s="5">
-        <v>1</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="8">
-        <v>3</v>
-      </c>
-      <c r="D8" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="K8" s="8">
-        <v>1</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="8">
-        <v>3</v>
-      </c>
-      <c r="D9" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="9">
-        <v>25000001</v>
-      </c>
-      <c r="K9" s="8">
-        <v>1</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M9" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="6">
-        <v>10000000</v>
-      </c>
-      <c r="K11" s="5">
-        <v>1</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M11" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="8">
-        <v>3</v>
-      </c>
-      <c r="D12" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="9">
-        <v>10000000</v>
-      </c>
-      <c r="K12" s="8">
-        <v>1</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="11">
-        <v>2</v>
-      </c>
-      <c r="D13" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="10" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="20">
+        <v>42979</v>
+      </c>
+      <c r="D16" s="14">
+        <v>4</v>
+      </c>
+      <c r="E16" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="K13" s="11">
-        <v>1</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="M13" s="11">
+      <c r="I16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="L16" s="14">
+        <v>1</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="N16" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="14">
-        <v>4</v>
-      </c>
-      <c r="D14" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="15">
-        <v>10000000</v>
-      </c>
-      <c r="K14" s="14">
-        <v>1</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="M14" s="14">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:N1"/>
+  <autoFilter ref="A1:O1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet3" filterMode="1"/>
   <dimension ref="A1:N162"/>
   <sheetViews>
@@ -7874,7 +7956,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M162">
+  <autoFilter ref="A1:M162" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="6">
       <filters>
         <filter val="Medical Group"/>
@@ -7887,7 +7969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView topLeftCell="J1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -8284,7 +8366,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1"/>
+  <autoFilter ref="A1:N1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/utilities/Excel_Sheets/Products/MEDEMD.xlsx
+++ b/utilities/Excel_Sheets/Products/MEDEMD.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="76">
   <si>
     <t>Test_Scenario</t>
   </si>
@@ -691,7 +691,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -762,46 +762,47 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="17">
-        <v>43132</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="6">
-        <v>500000</v>
-      </c>
-      <c r="L2" s="5">
-        <v>1</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="5">
+      <c r="A2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="19">
+        <f ca="1">TODAY()</f>
+        <v>43228</v>
+      </c>
+      <c r="D2" s="8">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="L2" s="8">
+        <v>1</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="8">
         <v>2</v>
       </c>
     </row>
@@ -814,7 +815,8 @@
         <v>21</v>
       </c>
       <c r="C4" s="18">
-        <v>43449</v>
+        <f ca="1">TODAY()</f>
+        <v>43228</v>
       </c>
       <c r="D4" s="11">
         <v>2</v>
@@ -838,7 +840,7 @@
         <v>7</v>
       </c>
       <c r="K4" s="12">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="L4" s="11">
         <v>1</v>
@@ -859,7 +861,8 @@
         <v>12</v>
       </c>
       <c r="C6" s="17">
-        <v>43449</v>
+        <f ca="1">TODAY()</f>
+        <v>43228</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -883,196 +886,153 @@
         <v>7</v>
       </c>
       <c r="K6" s="6">
-        <v>500000</v>
+        <v>15000000</v>
       </c>
       <c r="L6" s="5">
         <v>1</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="N6" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="17">
+      <c r="A8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="18">
+        <v>43449</v>
+      </c>
+      <c r="D8" s="11">
+        <v>2</v>
+      </c>
+      <c r="E8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="12">
+        <v>1300000</v>
+      </c>
+      <c r="L8" s="11">
+        <v>1</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="17">
+        <v>43449</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="6">
+        <v>7500000</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="17">
         <v>43344</v>
       </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="6">
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="6">
         <v>10000001</v>
       </c>
-      <c r="L8" s="5">
-        <v>1</v>
-      </c>
-      <c r="M8" s="5" t="s">
+      <c r="L12" s="5">
+        <v>1</v>
+      </c>
+      <c r="M12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="17">
-        <v>42979</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="6">
-        <v>25000001</v>
-      </c>
-      <c r="L9" s="5">
-        <v>1</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="19">
-        <v>42979</v>
-      </c>
-      <c r="D10" s="8">
-        <v>3</v>
-      </c>
-      <c r="E10" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L10" s="8">
-        <v>1</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="19">
-        <v>42979</v>
-      </c>
-      <c r="D11" s="8">
-        <v>3</v>
-      </c>
-      <c r="E11" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="9">
-        <v>25000001</v>
-      </c>
-      <c r="L11" s="8">
-        <v>1</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N11" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+      <c r="N12" s="5">
+        <v>2</v>
+      </c>
+    </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>12</v>
@@ -1105,16 +1065,16 @@
         <v>7</v>
       </c>
       <c r="K13" s="6">
-        <v>10000000</v>
+        <v>25000001</v>
       </c>
       <c r="L13" s="5">
         <v>1</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N13" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -1149,103 +1109,192 @@
         <v>7</v>
       </c>
       <c r="K14" s="9">
-        <v>10000000</v>
+        <v>25000001</v>
       </c>
       <c r="L14" s="8">
         <v>1</v>
       </c>
       <c r="M14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="17">
+        <v>42979</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L16" s="5">
+        <v>1</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="19">
+        <v>42979</v>
+      </c>
+      <c r="D17" s="8">
+        <v>3</v>
+      </c>
+      <c r="E17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="L17" s="8">
+        <v>1</v>
+      </c>
+      <c r="M17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N14" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="N17" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B18" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C18" s="18">
         <v>42979</v>
       </c>
-      <c r="D15" s="11">
-        <v>2</v>
-      </c>
-      <c r="E15" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="10" t="s">
+      <c r="D18" s="11">
+        <v>2</v>
+      </c>
+      <c r="E18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="L15" s="11">
-        <v>1</v>
-      </c>
-      <c r="M15" s="10" t="s">
+      <c r="I18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L18" s="11">
+        <v>1</v>
+      </c>
+      <c r="M18" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N18" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B19" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C19" s="20">
         <v>42979</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D19" s="14">
         <v>4</v>
       </c>
-      <c r="E16" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="13" t="s">
+      <c r="E19" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="15">
-        <v>10000000</v>
-      </c>
-      <c r="L16" s="14">
-        <v>1</v>
-      </c>
-      <c r="M16" s="13" t="s">
+      <c r="I19" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="L19" s="14">
+        <v>1</v>
+      </c>
+      <c r="M19" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="N16" s="14">
+      <c r="N19" s="14">
         <v>0</v>
       </c>
     </row>

--- a/utilities/Excel_Sheets/Products/MEDEMD.xlsx
+++ b/utilities/Excel_Sheets/Products/MEDEMD.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="5" r:id="rId1"/>
@@ -693,10 +693,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -758,7 +758,7 @@
       </c>
       <c r="C2" s="19">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D2" s="8">
         <v>3</v>
@@ -795,7 +795,7 @@
       </c>
       <c r="C4" s="18">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D4" s="11">
         <v>2</v>
@@ -832,7 +832,7 @@
       </c>
       <c r="C6" s="17">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -1190,10 +1190,10 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="C2" s="17">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
@@ -6614,10 +6614,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/utilities/Excel_Sheets/Products/MEDEMD.xlsx
+++ b/utilities/Excel_Sheets/Products/MEDEMD.xlsx
@@ -693,10 +693,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -758,10 +758,10 @@
       </c>
       <c r="C2" s="19">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43312</v>
       </c>
       <c r="D2" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>9</v>
@@ -795,7 +795,7 @@
       </c>
       <c r="C4" s="18">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43312</v>
       </c>
       <c r="D4" s="11">
         <v>2</v>
@@ -832,7 +832,7 @@
       </c>
       <c r="C6" s="17">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43312</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -1190,10 +1190,10 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L163"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1259,13 +1259,13 @@
       </c>
       <c r="C2" s="17">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43312</v>
       </c>
       <c r="D2" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>6</v>

--- a/utilities/Excel_Sheets/Products/MEDEMD.xlsx
+++ b/utilities/Excel_Sheets/Products/MEDEMD.xlsx
@@ -696,7 +696,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -758,7 +758,7 @@
       </c>
       <c r="C2" s="19">
         <f ca="1">TODAY()</f>
-        <v>43312</v>
+        <v>43319</v>
       </c>
       <c r="D2" s="8">
         <v>1</v>
@@ -795,7 +795,7 @@
       </c>
       <c r="C4" s="18">
         <f ca="1">TODAY()</f>
-        <v>43312</v>
+        <v>43319</v>
       </c>
       <c r="D4" s="11">
         <v>2</v>
@@ -832,7 +832,7 @@
       </c>
       <c r="C6" s="17">
         <f ca="1">TODAY()</f>
-        <v>43312</v>
+        <v>43319</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="C2" s="17">
         <f ca="1">TODAY()</f>
-        <v>43312</v>
+        <v>43319</v>
       </c>
       <c r="D2" s="5">
         <v>2</v>
